--- a/db_feed/L1.xlsx
+++ b/db_feed/L1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volko\Desktop\Grover\DB\ofet-db\db_feed\P3HT\Literature\Literature_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BBDCCB3-2248-4E9C-B281-69038E966310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F011E0A-1837-4563-A95B-4EF437F98918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="-9495" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="7" r:id="rId1"/>
@@ -2667,29 +2667,29 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="4"/>
-    <col min="3" max="3" width="39.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="8.7109375" style="4"/>
+    <col min="3" max="3" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="3"/>
       <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="3"/>
       <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
@@ -2709,17 +2709,17 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2825,7 +2825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="25" t="s">
         <v>180</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="25" t="s">
         <v>118</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="24" t="s">
         <v>181</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="24" t="s">
         <v>179</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="B30" t="s">
         <v>134</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="B31" t="s">
         <v>135</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="B32" t="s">
         <v>136</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="B33" t="s">
         <v>137</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="B34" t="s">
         <v>138</v>
       </c>
@@ -3081,12 +3081,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="G35" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="G36" s="25" t="s">
         <v>151</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="G38" s="25" t="s">
         <v>153</v>
       </c>
@@ -3291,13 +3291,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" style="10" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="52.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
@@ -3309,14 +3309,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="107" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="36" t="s">
         <v>165</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="36" t="s">
         <v>166</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="36" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="36" t="s">
         <v>64</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="36" t="s">
         <v>65</v>
       </c>
@@ -3367,12 +3367,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="36" t="s">
         <v>66</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="11" t="s">
         <v>171</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" ht="15.6">
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
@@ -3620,17 +3620,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6846DC66-F4E3-4EDA-AE74-F163B70AF782}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -3642,13 +3642,13 @@
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1"/>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="94" t="s">
         <v>2</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="93" t="s">
         <v>9</v>
       </c>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E15" s="64"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="93" t="s">
         <v>36</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="B22" s="90"/>
       <c r="E22" s="64"/>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="93" t="s">
         <v>43</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="E24" s="64"/>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="93" t="s">
         <v>191</v>
       </c>
@@ -3953,23 +3953,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.6" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>203</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="H1" s="111"/>
       <c r="I1" s="112"/>
     </row>
-    <row r="2" spans="1:9" ht="130.19999999999999" customHeight="1">
+    <row r="2" spans="1:9" ht="130.15" customHeight="1">
       <c r="A2" s="108" t="s">
         <v>193</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="17"/>
       <c r="D3" s="4"/>
       <c r="F3" s="51" t="s">
@@ -4005,7 +4005,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="16.2" thickBot="1">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1">
       <c r="A4" s="45" t="s">
         <v>207</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="55" t="s">
         <v>224</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="G7" s="18"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="55" t="s">
         <v>228</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="50" t="s">
         <v>231</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="F10" s="45" t="s">
         <v>198</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="F14" s="50" t="s">
         <v>334</v>
       </c>
@@ -4157,10 +4157,10 @@
       <c r="H14" s="53"/>
       <c r="I14" s="49"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -4230,7 +4230,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="58"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="F23" s="50" t="s">
         <v>230</v>
       </c>
@@ -4238,11 +4238,11 @@
       <c r="H23" s="53"/>
       <c r="I23" s="49"/>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1">
       <c r="F24" s="17"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="F25" s="45" t="s">
         <v>206</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1">
       <c r="F29" s="52" t="s">
         <v>221</v>
       </c>
@@ -4287,13 +4287,13 @@
       <c r="H29" s="53"/>
       <c r="I29" s="49"/>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="F31" s="45" t="s">
         <v>207</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="I35" s="58"/>
     </row>
-    <row r="36" spans="6:9" ht="15" thickBot="1">
+    <row r="36" spans="6:9" ht="15.75" thickBot="1">
       <c r="F36" s="50" t="s">
         <v>231</v>
       </c>
@@ -4399,12 +4399,12 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -4412,12 +4412,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:4">
       <c r="A4" s="60" t="s">
         <v>2</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="D23" s="64"/>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
       <c r="A24" s="68" t="s">
         <v>49</v>
       </c>
@@ -4712,19 +4712,19 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.6" thickBot="1">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>242</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="85"/>
       <c r="F3" s="51" t="s">
         <v>264</v>
@@ -4757,7 +4757,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="42" t="s">
         <v>267</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="50" t="s">
         <v>55</v>
       </c>
@@ -4863,10 +4863,10 @@
       <c r="H9" s="80"/>
       <c r="I9" s="49"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>269</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="45" t="s">
         <v>243</v>
       </c>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="I15" s="58"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="50" t="s">
         <v>261</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="H16" s="70"/>
       <c r="I16" s="58"/>
     </row>
-    <row r="17" spans="6:9" ht="15" thickBot="1">
+    <row r="17" spans="6:9" ht="15.75" thickBot="1">
       <c r="F17" s="77" t="s">
         <v>256</v>
       </c>
@@ -4979,11 +4979,11 @@
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="6:9" ht="16.2" thickBot="1">
+    <row r="18" spans="6:9" ht="16.5" thickBot="1">
       <c r="F18" s="17"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="6:9" ht="15.6">
+    <row r="19" spans="6:9" ht="15.75">
       <c r="F19" s="45" t="s">
         <v>248</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="6:9" ht="15" thickBot="1">
+    <row r="20" spans="6:9" ht="15.75" thickBot="1">
       <c r="F20" s="50" t="s">
         <v>249</v>
       </c>
@@ -5005,13 +5005,13 @@
       <c r="H20" s="48"/>
       <c r="I20" s="49"/>
     </row>
-    <row r="21" spans="6:9" ht="15" thickBot="1">
+    <row r="21" spans="6:9" ht="15.75" thickBot="1">
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="6:9" ht="15.6">
+    <row r="22" spans="6:9" ht="15.75">
       <c r="F22" s="45" t="s">
         <v>247</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="H25" s="73"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="6:9" ht="15" thickBot="1">
+    <row r="26" spans="6:9" ht="15.75" thickBot="1">
       <c r="F26" s="50" t="s">
         <v>251</v>
       </c>
@@ -5116,13 +5116,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="21">
@@ -5138,8 +5138,8 @@
       </c>
       <c r="B2" s="113"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1"/>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="16.95" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="101" t="s">
         <v>2</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>290</v>
       </c>
@@ -5448,22 +5448,22 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="4"/>
-    <col min="13" max="13" width="16.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="4"/>
+    <col min="13" max="13" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="10" customFormat="1" ht="21">
@@ -5485,14 +5485,14 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="10" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
+    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A4" s="45" t="s">
         <v>295</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
+    <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A8" s="50" t="s">
         <v>299</v>
       </c>
@@ -7605,8 +7605,8 @@
       <c r="E8" s="86"/>
       <c r="F8" s="49"/>
     </row>
-    <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1"/>
-    <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
+    <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A11" s="45" t="s">
         <v>296</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
+    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A15" s="50" t="s">
         <v>302</v>
       </c>
@@ -7665,8 +7665,8 @@
       <c r="E15" s="86"/>
       <c r="F15" s="49"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1"/>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="45" t="s">
         <v>303</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="50" t="s">
         <v>307</v>
       </c>
@@ -7756,8 +7756,8 @@
       <c r="E24" s="86"/>
       <c r="F24" s="49"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1"/>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>310</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="E37" s="39"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1">
       <c r="A38" s="50" t="s">
         <v>314</v>
       </c>
@@ -7899,8 +7899,8 @@
       <c r="E38" s="86"/>
       <c r="F38" s="49"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1"/>
-    <row r="41" spans="1:12" ht="15.6">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="45" t="s">
         <v>319</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="E42"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="A43" s="50" t="s">
         <v>320</v>
       </c>
@@ -7971,13 +7971,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="24.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="21">
@@ -7992,11 +7992,11 @@
       </c>
       <c r="B2" s="113"/>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="16.95" customHeight="1">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="104" t="s">
         <v>323</v>
       </c>
@@ -8007,14 +8007,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="16.95" customHeight="1">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>325</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="64"/>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="16.95" customHeight="1">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>326</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="B9" s="39"/>
       <c r="C9" s="64"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="50" t="s">
         <v>330</v>
       </c>
@@ -8061,7 +8061,7 @@
     <row r="13" spans="1:4">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8097,7 +8097,7 @@
     <row r="49" spans="1:16379">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:16379" ht="15.6">
+    <row r="50" spans="1:16379" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8123,13 +8123,13 @@
     <row r="55" spans="1:16379">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:16379" ht="15.6">
+    <row r="56" spans="1:16379" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:16379" s="8" customFormat="1" ht="15.6">
+    <row r="57" spans="1:16379" s="8" customFormat="1" ht="15.75">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" s="4"/>
@@ -47041,7 +47041,7 @@
     <row r="91" spans="1:4">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:4" ht="15.6">
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -47067,7 +47067,7 @@
     <row r="97" spans="1:16379">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:16379" ht="15.6">
+    <row r="98" spans="1:16379" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
